--- a/htdocs/App/Controllers/Traspasos/8724FPD.xlsx
+++ b/htdocs/App/Controllers/Traspasos/8724FPD.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>TRANSFERENCIAS COMPRAVENTAS</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>09-01-2018</t>
+    <t>15-02-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Cristina</t>
+    <t>Jaume</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -76,22 +76,25 @@
     <t>Mail</t>
   </si>
   <si>
+    <t>brany_ss@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tramitación Transferencia………………..</t>
+  </si>
+  <si>
+    <t>Cancelación y Gest. RBM………</t>
+  </si>
+  <si>
+    <t>Pago y Gest. IVTM………………</t>
+  </si>
+  <si>
+    <t>Comprador:</t>
+  </si>
+  <si>
+    <t>BRANY</t>
+  </si>
+  <si>
     <t>Sin confirmar</t>
-  </si>
-  <si>
-    <t>Tramitación Transferencia………………..</t>
-  </si>
-  <si>
-    <t>Cancelación y Gest. RBM………</t>
-  </si>
-  <si>
-    <t>Pago y Gest. IVTM………………</t>
-  </si>
-  <si>
-    <t>Comprador:</t>
-  </si>
-  <si>
-    <t>BRANY</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1380,7 +1383,7 @@
       <c r="W16" s="60"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="36">
-        <v>12.4</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="14" t="s">
         <v>12</v>
@@ -1456,7 +1459,7 @@
       <c r="W18" s="60"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="44">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z18" s="14" t="s">
         <v>12</v>
@@ -1655,7 +1658,7 @@
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -1839,7 +1842,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
